--- a/data/trans_dic/P10_2-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P10_2-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -521,7 +522,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que tiene acceso a internet con Wifi</t>
+          <t>Población que tiene acceso a internet con Wifi (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -601,32 +602,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>70,06%</t>
+          <t>74,68%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>73,46%</t>
+          <t>75,9%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>65,5%</t>
+          <t>63,6%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>64,84%</t>
+          <t>61,62%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>67,58%</t>
+          <t>68,78%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>68,85%</t>
+          <t>68,4%</t>
         </is>
       </c>
     </row>
@@ -639,32 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>60,39; 79,42</t>
+          <t>58,96; 87,27</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>63,34; 83,12</t>
+          <t>60,24; 90,25</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>55,36; 73,74</t>
+          <t>48,35; 75,4</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>54,55; 73,99</t>
+          <t>46,17; 73,59</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>61,05; 74,03</t>
+          <t>58,13; 79,33</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>61,27; 75,62</t>
+          <t>57,52; 80,17</t>
         </is>
       </c>
     </row>
@@ -681,32 +682,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>86,45%</t>
+          <t>83,92%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>87,14%</t>
+          <t>83,84%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>87,45%</t>
+          <t>90,35%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>88,05%</t>
+          <t>90,34%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>86,97%</t>
+          <t>87,24%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>87,61%</t>
+          <t>87,22%</t>
         </is>
       </c>
     </row>
@@ -719,32 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>76,99; 91,25</t>
+          <t>68,41; 90,65</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>77,71; 92,25</t>
+          <t>67,42; 90,81</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>82,19; 91,04</t>
+          <t>85,06; 94,44</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>83,56; 91,57</t>
+          <t>85,02; 94,46</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>82,12; 90,39</t>
+          <t>79,6; 91,04</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>82,6; 90,87</t>
+          <t>78,83; 91,17</t>
         </is>
       </c>
     </row>
@@ -761,32 +762,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>95,22%</t>
+          <t>94,89%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>95,16%</t>
+          <t>94,25%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>96,87%</t>
+          <t>97,53%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>96,94%</t>
+          <t>98,19%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>96,11%</t>
+          <t>96,36%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>96,12%</t>
+          <t>96,47%</t>
         </is>
       </c>
     </row>
@@ -799,39 +800,39 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>87,85; 98,07</t>
+          <t>82,61; 98,57</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>85,6; 98,65</t>
+          <t>79,57; 98,55</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>94,28; 98,53</t>
+          <t>94,43; 99,43</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>94,2; 98,6</t>
+          <t>95,42; 99,52</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>93,07; 97,75</t>
+          <t>90,97; 98,45</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>92,18; 97,9</t>
+          <t>89,71; 98,67</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -841,32 +842,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>86,66%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>87,4%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>86,83%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>86,97%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>86,75%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>87,17%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -879,46 +880,844 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>81,69; 89,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>81,93; 90,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>83,5; 89,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>83,88; 89,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>84,19; 88,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>84,51; 89,29</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>86,81%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>86,58%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>89,69%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>89,63%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>88,35%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>88,22%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>78,92; 91,0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>77,99; 91,13</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>85,7; 92,57</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>85,69; 92,64</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>84,53; 91,1</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>84,22; 91,16</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que tiene acceso a internet con Wifi (tasa de respuesta: 100,0%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>77176</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>97819</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>74923</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>87785</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>152098</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>185604</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>60929; 90187</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>77643; 116323</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>56963; 88820</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>65775; 104840</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>128565; 175434</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>156087; 217547</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>131.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>132.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>164.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>164.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>295.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>296.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>307137</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>360082</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>352927</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>419591</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>660065</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>779672</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>250379; 331775</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>289540; 390025</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>332261; 368902</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>394909; 438738</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>602277; 688860</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>704668; 815043</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>118.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>118.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>163.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>164.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>281.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>282.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>271310</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>313756</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>350733</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>420642</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>622042</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>734398</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>236198; 281820</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>264891; 328069</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>339597; 357559</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>408767; 426350</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>587250; 635517</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>682925; 751152</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>276.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>277.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>362.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>363.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>638.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>640.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>655623</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>771656</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>778583</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>928018</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>1434205</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>1699675</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>596052; 687289</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>695083; 812205</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>743899; 803581</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>887214; 959105</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>1372260; 1478869</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>1622651; 1756250</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>